--- a/Configs/MyFirstConfig.xlsx
+++ b/Configs/MyFirstConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="FirstCfg" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>sn</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>tian.png</t>
+  </si>
+  <si>
+    <t>Assets/Prefab/LumiCube.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">can I help you </t>
@@ -1046,12 +1049,14 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1148,6 +1153,9 @@
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
       <c r="E7">
         <v>78</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1176,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1269,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1291,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>51</v>
@@ -1302,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>345</v>
@@ -1339,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1348,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1379,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1388,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1433,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1467,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>51</v>
@@ -1484,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>345</v>

--- a/Configs/MyFirstConfig.xlsx
+++ b/Configs/MyFirstConfig.xlsx
@@ -82,7 +82,7 @@
     <t>tian.png</t>
   </si>
   <si>
-    <t>Assets/Prefab/LumiCube.prefab</t>
+    <t>Assets/GameRes/Prefab/LumiCube.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">can I help you </t>
